--- a/[2분반]2015136043_김한솔_2015136128_천세은_마프_재료구매신청서 (1).xlsx
+++ b/[2분반]2015136043_김한솔_2015136128_천세은_마프_재료구매신청서 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2015136043-2015136128\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -365,6 +365,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,54 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,62 +1166,62 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1250,19 +1250,19 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>19000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>19000</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="2"/>
@@ -1271,19 +1271,19 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>3000</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="2"/>
@@ -1292,19 +1292,19 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>7500</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>7500</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="2"/>
@@ -1313,22 +1313,22 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>2970</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>14850</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>3900</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>15600</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1359,19 +1359,19 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>950</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>2850</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="2"/>
@@ -1380,19 +1380,19 @@
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>5144</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>10288</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="2"/>
@@ -1401,19 +1401,19 @@
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>2500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>7500</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2"/>
@@ -1425,37 +1425,37 @@
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>25000</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>25000</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>3120</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>3120</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="2"/>
@@ -1467,13 +1467,13 @@
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>6500</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <v>6500</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1488,7 +1488,7 @@
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>115208</v>
       </c>
       <c r="F18" s="2"/>
@@ -1504,7 +1504,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F15"/>
+    <hyperlink ref="F15" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1374017555&amp;NaPm=ct=iu826c1s|ci=10177b65572e9637b6ccf01f7f2dbab64b885614|tr=sls|sn=17703|hk=91f34257415f690c2df120cc022b962da72ef60b&amp;utm_term=&amp;utm_campaign=-&amp;utm_so"/>
     <hyperlink ref="F14" r:id="rId1"/>
     <hyperlink ref="F13" r:id="rId2"/>
   </hyperlinks>
